--- a/trained_models/MLP/pendigits/results_table.xlsx
+++ b/trained_models/MLP/pendigits/results_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>orig-fxp-drop</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>fxppo2_accuracy_qkeras</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>orig-fxppo2-drop_qkeras</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +536,12 @@
       <c r="J2" t="n">
         <v>-0.005431675242995926</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.4882790165809034</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1226415094339623</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +584,12 @@
       <c r="J3" t="n">
         <v>0.001715265866209237</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.2001143510577473</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.137221269296741</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +632,12 @@
       <c r="J4" t="n">
         <v>-0.00829045168667808</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.2264150943396226</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.245854774156661</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +680,12 @@
       <c r="J5" t="n">
         <v>0.001715265866209292</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.3776443682104059</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1638078902229846</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +728,12 @@
       <c r="J6" t="n">
         <v>0.0005717552887364308</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.254145225843339</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.319325328759291</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +776,12 @@
       <c r="J7" t="n">
         <v>0.002858776443682154</v>
       </c>
+      <c r="K7" t="n">
+        <v>0.4485420240137221</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0920526014865638</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +824,12 @@
       <c r="J8" t="n">
         <v>-0.002572898799313939</v>
       </c>
+      <c r="K8" t="n">
+        <v>0.2650085763293311</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1503716409376786</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +872,12 @@
       <c r="J9" t="n">
         <v>0.005431675242995926</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.3662092624356775</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2075471698113207</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +920,12 @@
       <c r="J10" t="n">
         <v>-0.002287021154945612</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.2884505431675243</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.09748427672955984</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -904,6 +968,12 @@
       <c r="J11" t="n">
         <v>0.005431675242996037</v>
       </c>
+      <c r="K11" t="n">
+        <v>0.213264722698685</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.09348198970840482</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -946,6 +1016,12 @@
       <c r="J12" t="n">
         <v>-0.008576329331046295</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.2492853058890795</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.09405374499714123</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -988,6 +1064,12 @@
       <c r="J13" t="n">
         <v>0.01772441395082913</v>
       </c>
+      <c r="K13" t="n">
+        <v>0.4082332761578045</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1580903373356204</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1030,6 +1112,12 @@
       <c r="J14" t="n">
         <v>0.01972555746140647</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.3847913093196112</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2447112635791881</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1072,6 +1160,12 @@
       <c r="J15" t="n">
         <v>0.004002287021154904</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.4405374499714123</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1249285305889079</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1114,6 +1208,12 @@
       <c r="J16" t="n">
         <v>0.00914808461978267</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.4622641509433962</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.1503716409376786</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1156,6 +1256,12 @@
       <c r="J17" t="n">
         <v>0.001143510577472806</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.1497998856489423</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1092052601486563</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1198,6 +1304,12 @@
       <c r="J18" t="n">
         <v>-0.001429388221841021</v>
       </c>
+      <c r="K18" t="n">
+        <v>0.440251572327044</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.2166952544311035</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1240,6 +1352,12 @@
       <c r="J19" t="n">
         <v>0.00400228702115496</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.1703830760434534</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3078902229845626</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1282,6 +1400,12 @@
       <c r="J20" t="n">
         <v>0.001715265866209237</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.2384219554030875</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.1623785020011435</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1323,6 +1447,12 @@
       </c>
       <c r="J21" t="n">
         <v>0.002572898799313994</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5343053173241853</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01000571755288737</v>
       </c>
     </row>
   </sheetData>
